--- a/output/fit_clients/fit_round_317.xlsx
+++ b/output/fit_clients/fit_round_317.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1984705084.27003</v>
+        <v>1610333324.688902</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1038996828128395</v>
+        <v>0.1066658988048301</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04316405389025386</v>
+        <v>0.03987029112507408</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>992352535.7625877</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2405987602.03761</v>
+        <v>2101540556.524996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.143956120390795</v>
+        <v>0.1533166547207427</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04611740616121879</v>
+        <v>0.03917299923980219</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1202993903.959344</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4922419315.446111</v>
+        <v>5029149527.032848</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1238825675476499</v>
+        <v>0.1669997005545736</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02511071067492573</v>
+        <v>0.02675982955272881</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>114</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2461209737.260027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4011741071.244403</v>
+        <v>3641109675.238433</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1065373412612514</v>
+        <v>0.09974206349281352</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03308501497929722</v>
+        <v>0.0370964993489426</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>117</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2005870538.548937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2230594296.866867</v>
+        <v>2380826683.285416</v>
       </c>
       <c r="F6" t="n">
-        <v>0.141995698399089</v>
+        <v>0.0953651010250219</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04717252364149156</v>
+        <v>0.05188952935535698</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>59</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1115297153.07815</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2014792143.798945</v>
+        <v>2907719731.888751</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08022898213528989</v>
+        <v>0.09994068124913318</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04625456498379477</v>
+        <v>0.03250939768911393</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>99</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1007396131.618852</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3143130126.235415</v>
+        <v>3823039220.568307</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1579921380834625</v>
+        <v>0.1724609953704927</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03178745086141203</v>
+        <v>0.02961917414546709</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>101</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1571565135.266532</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1894116689.619996</v>
+        <v>1682383778.226851</v>
       </c>
       <c r="F9" t="n">
-        <v>0.137491820739656</v>
+        <v>0.1748280344575734</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02293384000033882</v>
+        <v>0.03544390303335574</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>947058386.1184511</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5050477972.680006</v>
+        <v>4580924087.310664</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1481174221644699</v>
+        <v>0.1459670424757677</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04335259466280686</v>
+        <v>0.05029033873697834</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>133</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2525239089.598699</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3452454753.881732</v>
+        <v>4267639963.860361</v>
       </c>
       <c r="F11" t="n">
-        <v>0.181472042237081</v>
+        <v>0.1170573480108078</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04978752795405713</v>
+        <v>0.04558990749176123</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>131</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1726227351.442689</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3073782094.622284</v>
+        <v>2646231836.876901</v>
       </c>
       <c r="F12" t="n">
-        <v>0.152857020204992</v>
+        <v>0.1374029538112215</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03862098718314395</v>
+        <v>0.04908046021001258</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>107</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1536891072.085813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5095836634.503004</v>
+        <v>3412190630.147532</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1002217194061053</v>
+        <v>0.08326431007064274</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0262656363283834</v>
+        <v>0.02773615022543094</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>106</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2547918316.529517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2542734354.414206</v>
+        <v>3632443543.39502</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1390387585551496</v>
+        <v>0.1475935196921735</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02764296877835508</v>
+        <v>0.0311548827611814</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1271367244.765353</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1429399860.630115</v>
+        <v>1559098029.738977</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07818746132709389</v>
+        <v>0.07220033439850823</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04840128162697464</v>
+        <v>0.04051333165557368</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>714699999.8142304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2847580248.887575</v>
+        <v>2077924580.2597</v>
       </c>
       <c r="F16" t="n">
-        <v>0.108891805207857</v>
+        <v>0.08439150112033549</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04613547435697984</v>
+        <v>0.03762349879099631</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>62</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1423790124.209424</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4456131629.001487</v>
+        <v>4013956429.176652</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1497408059515082</v>
+        <v>0.1431883500904709</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04600115537477503</v>
+        <v>0.0407230339734798</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>92</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2228065826.549328</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3742779311.143993</v>
+        <v>3359573984.209449</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1436380963417324</v>
+        <v>0.1821885149368946</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02648693021999158</v>
+        <v>0.0254377458077962</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>103</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1871389632.015947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1347255260.462709</v>
+        <v>968644135.4695134</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1851770809597458</v>
+        <v>0.1615875232339899</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01656523375073343</v>
+        <v>0.0258163049817276</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>673627744.000001</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2388187799.427253</v>
+        <v>1827279758.48945</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1615815824041775</v>
+        <v>0.1558584411592344</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03171135047767297</v>
+        <v>0.02022072808616315</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1194093884.72075</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1684058923.467995</v>
+        <v>2657903036.153888</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06871548140723223</v>
+        <v>0.06387895341390309</v>
       </c>
       <c r="G21" t="n">
-        <v>0.030296589887842</v>
+        <v>0.02825188351603043</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>842029527.9213115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3606722363.804037</v>
+        <v>3646958421.120382</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1339457191440635</v>
+        <v>0.1162042395124781</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0407284748575043</v>
+        <v>0.03696636227432435</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>87</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1803361207.106331</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1554910461.637916</v>
+        <v>1422508383.265981</v>
       </c>
       <c r="F23" t="n">
-        <v>0.116070121622566</v>
+        <v>0.1332380861297151</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04914859348245941</v>
+        <v>0.03983384578887586</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>777455207.5172615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2995189136.601762</v>
+        <v>2993407199.059435</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1131093397544239</v>
+        <v>0.1218711852217699</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02725292313170666</v>
+        <v>0.03264563638691477</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>92</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1497594603.869396</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1389943164.403726</v>
+        <v>1130080513.359596</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1178964356452351</v>
+        <v>0.09686011857081916</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02081739084792687</v>
+        <v>0.02407880292239983</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>694971556.4904916</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>916143505.008829</v>
+        <v>1015562813.064442</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09647114709386528</v>
+        <v>0.1185533957451035</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02449568356025792</v>
+        <v>0.03773944055625741</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>458071704.1193894</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4632221117.959607</v>
+        <v>4225687525.286528</v>
       </c>
       <c r="F27" t="n">
-        <v>0.10362649406286</v>
+        <v>0.148897511000366</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02137599357939702</v>
+        <v>0.02497177738211889</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>82</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2316110537.732749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3451909068.723076</v>
+        <v>3393009024.574337</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1022467035782204</v>
+        <v>0.1421140289166899</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03928702879473418</v>
+        <v>0.04104436783709084</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>104</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1725954584.821611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5431501408.47085</v>
+        <v>5614552289.105292</v>
       </c>
       <c r="F29" t="n">
-        <v>0.115242140735773</v>
+        <v>0.1420641857166664</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0372472272288689</v>
+        <v>0.03162661464700279</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>139</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2715750621.947937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2411375148.902837</v>
+        <v>2403604354.219075</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1353927153882367</v>
+        <v>0.1180577949148111</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02963147341240967</v>
+        <v>0.04021376590422037</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1205687658.765591</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1423175146.426177</v>
+        <v>1154273351.838034</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1087604329086353</v>
+        <v>0.06858485541975429</v>
       </c>
       <c r="G31" t="n">
-        <v>0.047554287957416</v>
+        <v>0.04921029390055608</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>711587472.1556941</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1516078028.775086</v>
+        <v>1276094685.411082</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07513650732936146</v>
+        <v>0.09568385041129006</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03810960308853629</v>
+        <v>0.03337964997839093</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>758039086.0508987</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3067527060.210477</v>
+        <v>3023921879.200338</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1579014615185808</v>
+        <v>0.1568771412548567</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05135628328494966</v>
+        <v>0.04088350981368337</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>94</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1533763519.987791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1536255516.97275</v>
+        <v>1055331502.334276</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1099220350767648</v>
+        <v>0.08304727460995835</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01801448737032409</v>
+        <v>0.02562457723489878</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>768127708.4477606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>989791245.6865468</v>
+        <v>987799108.472703</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1185158982565569</v>
+        <v>0.09174400348876961</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04144285420267528</v>
+        <v>0.04315466462556834</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>494895643.6801823</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2604860580.700556</v>
+        <v>2716234731.991387</v>
       </c>
       <c r="F36" t="n">
-        <v>0.167436192376246</v>
+        <v>0.1491224076379069</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02784079444375703</v>
+        <v>0.02176713765542992</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>79</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1302430303.908223</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2388906534.654148</v>
+        <v>1933241956.737755</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1111118385221272</v>
+        <v>0.07401134195292847</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03359212502886638</v>
+        <v>0.03305865635461676</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>83</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1194453348.102035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2122020262.767457</v>
+        <v>1460497002.592325</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1203260057366639</v>
+        <v>0.08491550527367298</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03882366918956127</v>
+        <v>0.02478197005587948</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1061010092.782726</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1376800018.652987</v>
+        <v>2138890811.954956</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1373118307759299</v>
+        <v>0.164890003451593</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0202572049088544</v>
+        <v>0.02939335459754213</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>688400098.4623718</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1644823234.738586</v>
+        <v>1545608302.681535</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1558521172753124</v>
+        <v>0.1107565692647705</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03830252137194084</v>
+        <v>0.0569871067230251</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>822411547.32663</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2762790595.635066</v>
+        <v>2823214024.609824</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1522738601885724</v>
+        <v>0.1629345653944707</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03131290442436083</v>
+        <v>0.04174549044061632</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>80</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1381395297.375181</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3802129133.600086</v>
+        <v>3735773434.735588</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1057430010143544</v>
+        <v>0.1170627873570534</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03881710892547982</v>
+        <v>0.02857474051467774</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1901064582.451144</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2303314810.438538</v>
+        <v>2120631527.186378</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1404722921431236</v>
+        <v>0.1728554734570687</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02118992598595816</v>
+        <v>0.02474530607379453</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>113</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1151657473.664681</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1672226195.808712</v>
+        <v>1843627811.548219</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09007376864112678</v>
+        <v>0.09849652576490089</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02735809909571589</v>
+        <v>0.03270543456103848</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>836113138.8479469</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1645893182.751466</v>
+        <v>2173877965.231352</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1192706934833721</v>
+        <v>0.1537394586225611</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03917110644161918</v>
+        <v>0.03679821908824246</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>822946546.5929153</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4510197875.933113</v>
+        <v>3792732726.796237</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1646188551563369</v>
+        <v>0.1332802706297235</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04618228434724924</v>
+        <v>0.04786522568217651</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>112</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2255098936.712413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3435201267.133102</v>
+        <v>3140493473.652533</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1367857401600886</v>
+        <v>0.1429675364333273</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04053877589114533</v>
+        <v>0.04333447393119805</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>85</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1717600600.709143</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4046544844.603793</v>
+        <v>2892180598.329028</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07759039348401026</v>
+        <v>0.106373878311896</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03274555499771138</v>
+        <v>0.03147080064809459</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2023272453.970579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1421249903.712167</v>
+        <v>1455378164.583559</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1867060452025275</v>
+        <v>0.168561611301538</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03960069883170844</v>
+        <v>0.04192849004189262</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>710624996.1356286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4035834040.280092</v>
+        <v>3962402706.864093</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1474456341080029</v>
+        <v>0.1286258186046645</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05339264173376638</v>
+        <v>0.04172460084840327</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>108</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2017917006.272891</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1229512565.248901</v>
+        <v>1137768516.558338</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1922890345190499</v>
+        <v>0.1410505633745247</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05115465926839639</v>
+        <v>0.05401472135190944</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>614756329.3959755</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4814506200.69331</v>
+        <v>3372674549.739582</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1243107297164261</v>
+        <v>0.1351446980344497</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04743307357095793</v>
+        <v>0.05180670400987071</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>130</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2407253108.89009</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2695454320.903141</v>
+        <v>3363376942.765462</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1761481161377565</v>
+        <v>0.1803774434748798</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02348069174363154</v>
+        <v>0.0236706198699099</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>91</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1347727213.938681</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4093009148.356091</v>
+        <v>3340778776.783437</v>
       </c>
       <c r="F54" t="n">
-        <v>0.137186018729961</v>
+        <v>0.1491780392442769</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05292088678294408</v>
+        <v>0.05069142884244032</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>104</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2046504645.538648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3823644572.90962</v>
+        <v>3299275508.804951</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1702793505578593</v>
+        <v>0.2234669862006734</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03081010219270296</v>
+        <v>0.02522170648820185</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1911822253.610509</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1289775048.152044</v>
+        <v>1626131989.809563</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1148871371729528</v>
+        <v>0.1418162552593069</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03637608019244384</v>
+        <v>0.04177776862334948</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>644887597.4589267</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4012736227.257277</v>
+        <v>3321920038.028708</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1238067960513859</v>
+        <v>0.1192517746376802</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02583467087343883</v>
+        <v>0.02217897185497245</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>100</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2006368203.070598</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1750680484.529058</v>
+        <v>1876531933.218942</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1430698044347523</v>
+        <v>0.1758867786641903</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03314656257247789</v>
+        <v>0.02629989057044349</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>875340250.5233124</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4696665160.93969</v>
+        <v>4489973972.76282</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1247380691101375</v>
+        <v>0.1231220939158133</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04982239258065026</v>
+        <v>0.03274696936476431</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2348332522.814496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3227865589.862769</v>
+        <v>3463381278.947147</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1983440687055336</v>
+        <v>0.1349659058601276</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02563028641019709</v>
+        <v>0.02096378531108893</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1613932889.188649</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2394939759.875055</v>
+        <v>2615460009.57585</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1164959233204513</v>
+        <v>0.1179214162588969</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02151693890067692</v>
+        <v>0.03177413932954776</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>108</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1197469917.469164</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2068970429.245184</v>
+        <v>1386854728.151115</v>
       </c>
       <c r="F62" t="n">
-        <v>0.184752167588363</v>
+        <v>0.1865533123303695</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04741158879175616</v>
+        <v>0.03141676706483246</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1034485283.063741</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4167401515.87864</v>
+        <v>4675125602.32513</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1016152559568492</v>
+        <v>0.1025706330574813</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03772947121227282</v>
+        <v>0.02964721957384034</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2083700812.858085</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3617011154.040391</v>
+        <v>4790265264.151415</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1231942531441461</v>
+        <v>0.1750860097560444</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03349415190193975</v>
+        <v>0.02734569533909343</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>98</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1808505585.945466</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4945386297.975453</v>
+        <v>5627034387.40354</v>
       </c>
       <c r="F65" t="n">
-        <v>0.15989319801951</v>
+        <v>0.1204798911089018</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02423653091607864</v>
+        <v>0.02287989297803252</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>113</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2472693111.16548</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4215264682.105955</v>
+        <v>3919973578.366609</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1471080642114402</v>
+        <v>0.1522300017768142</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04263994715355891</v>
+        <v>0.04475136427262606</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>92</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2107632326.20804</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2352642295.310026</v>
+        <v>3196587202.902825</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09099131143665559</v>
+        <v>0.09622692001100532</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04065187401055572</v>
+        <v>0.0479239137287463</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>101</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1176321220.734951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3870888298.948387</v>
+        <v>4255181205.385158</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1167613134378938</v>
+        <v>0.1566877467654373</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05021743905873761</v>
+        <v>0.03672620449850669</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1935444137.439014</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2097521199.531417</v>
+        <v>2441152087.88576</v>
       </c>
       <c r="F69" t="n">
-        <v>0.148538748146614</v>
+        <v>0.1635882109760625</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03802628221356986</v>
+        <v>0.03698685243048818</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1048760617.313182</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3565403436.383461</v>
+        <v>2676168796.037895</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0889522965296053</v>
+        <v>0.07940332067699539</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04469374439560322</v>
+        <v>0.04370748545233795</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>90</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1782701731.940521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5337212135.120209</v>
+        <v>4474091745.487128</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1372883604432595</v>
+        <v>0.1200849005041529</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0282906328830632</v>
+        <v>0.02663848893705944</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>116</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2668606198.418828</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1668737119.737749</v>
+        <v>1482570209.507859</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07530006963201863</v>
+        <v>0.08716171629159612</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0397846973482664</v>
+        <v>0.03842907559339567</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>834368559.6167604</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2517678466.503023</v>
+        <v>3528650535.089712</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1087477902642126</v>
+        <v>0.08647670053763563</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03410343945473922</v>
+        <v>0.04386878291612025</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>120</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1258839273.415426</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3712243337.832873</v>
+        <v>3567022406.275476</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1486036222509872</v>
+        <v>0.1126707258467618</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03190087255425972</v>
+        <v>0.0347661515184295</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>107</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1856121672.756555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2387119924.529154</v>
+        <v>1983730617.598226</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1387618623161579</v>
+        <v>0.1278246253275028</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02775491087589271</v>
+        <v>0.03378651649052464</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1193559890.161837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4298028250.977162</v>
+        <v>5290928960.866551</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1042082534236211</v>
+        <v>0.120353534837244</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02295991989696141</v>
+        <v>0.02673526247465781</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2149014122.678648</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2130120903.442521</v>
+        <v>2148597308.774633</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1669884958794508</v>
+        <v>0.1791745148776217</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02973161962712067</v>
+        <v>0.02249225565109677</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1065060532.440703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4245782679.558749</v>
+        <v>4196083777.914907</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1160925927302519</v>
+        <v>0.1140573604748607</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03663773022212374</v>
+        <v>0.05270116943909657</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>110</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2122891287.936705</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1814591278.824378</v>
+        <v>1912698033.393538</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1147065192981337</v>
+        <v>0.1763133124191489</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03364320399766994</v>
+        <v>0.02930050704100642</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>907295728.6683279</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4502516837.750379</v>
+        <v>4503647460.847165</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07718571603389721</v>
+        <v>0.1045588189831714</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02830646834184762</v>
+        <v>0.02862592068099037</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2251258443.341867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3569295452.219848</v>
+        <v>4591664599.036306</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1285661004265185</v>
+        <v>0.09349745633337524</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0244766463238863</v>
+        <v>0.0220093606657693</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1784647673.343737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4915312563.3754</v>
+        <v>5563373341.394711</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1692153679143072</v>
+        <v>0.1844307641243489</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02722516629021821</v>
+        <v>0.02123924203986726</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>112</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2457656270.375613</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2291421140.062157</v>
+        <v>1823416552.102872</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1303850278065287</v>
+        <v>0.1306752980951038</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04354390490192113</v>
+        <v>0.03056091877688083</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1145710591.584425</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2483835164.975866</v>
+        <v>2344220800.011968</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1090034048557796</v>
+        <v>0.09532309808057263</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05159010362639893</v>
+        <v>0.04346810290551988</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1241917516.629125</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2699382132.98455</v>
+        <v>3093752990.895539</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1416357330856894</v>
+        <v>0.1332862114646628</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03617097036959289</v>
+        <v>0.04029325463168672</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>119</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1349691093.442974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2579973057.973601</v>
+        <v>1814117074.301754</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1699777450757191</v>
+        <v>0.1477944331191514</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0222554658652906</v>
+        <v>0.02620631731680464</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>43</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1289986637.27254</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1207653022.279851</v>
+        <v>1344388724.147874</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1171723529719261</v>
+        <v>0.1358435088269744</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03280489480408044</v>
+        <v>0.03524752583120478</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>603826568.6833817</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2561027306.143993</v>
+        <v>3025724859.459919</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1237083473216116</v>
+        <v>0.1718886224233636</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02482271230771047</v>
+        <v>0.03503351037527886</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>126</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1280513640.131288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2898498519.99345</v>
+        <v>2801722317.326991</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1576435783608347</v>
+        <v>0.140973637474382</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02969375119107625</v>
+        <v>0.03772588944799594</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>106</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1449249305.551094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1839825179.73858</v>
+        <v>2057748545.040019</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09598916155895752</v>
+        <v>0.1094134877670456</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03816529463088656</v>
+        <v>0.03401989174878126</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>919912630.8349115</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1428991677.90651</v>
+        <v>1295745047.069905</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1194543572972567</v>
+        <v>0.1356520290137409</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04660566328652441</v>
+        <v>0.05114425225670033</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>714495887.3609433</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2548910291.603658</v>
+        <v>2702191591.051401</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07248201801705717</v>
+        <v>0.08815543271960034</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04353480909019562</v>
+        <v>0.03915003233697713</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>83</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1274455133.442691</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3292148521.516957</v>
+        <v>4818778906.132101</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0933057456341406</v>
+        <v>0.1040537102152083</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04165702076525063</v>
+        <v>0.04143109847263258</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>97</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1646074307.16023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2313931902.223359</v>
+        <v>1960095908.694204</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1585247817476908</v>
+        <v>0.1393466358368037</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03558109686501482</v>
+        <v>0.03272799440956765</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1156965990.385615</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2236223754.139875</v>
+        <v>2037870148.113951</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1231127482255011</v>
+        <v>0.1313543255522503</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04286970053953003</v>
+        <v>0.0365000035204064</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>77</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1118111932.339641</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1973114867.196987</v>
+        <v>1920930970.069269</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1272911381129188</v>
+        <v>0.1023618697422913</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03637430959849799</v>
+        <v>0.04226911108747809</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>986557423.4469873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3384016742.503247</v>
+        <v>4168996527.030042</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1522353095975674</v>
+        <v>0.1096380191329248</v>
       </c>
       <c r="G97" t="n">
-        <v>0.028854547953883</v>
+        <v>0.02869411056233371</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>102</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1692008378.098819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3397574579.379326</v>
+        <v>2536651057.170379</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1261599171173416</v>
+        <v>0.0876373987415312</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02412207625358327</v>
+        <v>0.03116079160042659</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>85</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1698787301.342075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2755465522.076765</v>
+        <v>2786100887.815853</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1232025846104581</v>
+        <v>0.08922376439956969</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03508677664946613</v>
+        <v>0.0263539169985034</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1377732729.283218</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3172375237.800788</v>
+        <v>4547924475.665215</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1345306268868711</v>
+        <v>0.1441274082823917</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02110720882928228</v>
+        <v>0.01788590050884124</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>98</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1586187623.490169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3507577359.39918</v>
+        <v>2744404661.898652</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1456849765831105</v>
+        <v>0.1376445993342684</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05602247758029509</v>
+        <v>0.03770420450722189</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>127</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1753788835.879955</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_317.xlsx
+++ b/output/fit_clients/fit_round_317.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1610333324.688902</v>
+        <v>2193350006.525269</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1066658988048301</v>
+        <v>0.06915538247313906</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03987029112507408</v>
+        <v>0.0415148952643332</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2101540556.524996</v>
+        <v>2160708241.114324</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1533166547207427</v>
+        <v>0.1512710939887841</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03917299923980219</v>
+        <v>0.05030385750276272</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5029149527.032848</v>
+        <v>3651802912.551239</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1669997005545736</v>
+        <v>0.1399781845614413</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02675982955272881</v>
+        <v>0.03673073983293706</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3641109675.238433</v>
+        <v>3808374000.470132</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09974206349281352</v>
+        <v>0.09243085293124829</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0370964993489426</v>
+        <v>0.05046599929607861</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2380826683.285416</v>
+        <v>2760192264.486811</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0953651010250219</v>
+        <v>0.1151447906964013</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05188952935535698</v>
+        <v>0.03489926847004392</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2907719731.888751</v>
+        <v>2412636324.589274</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09994068124913318</v>
+        <v>0.09971101436381428</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03250939768911393</v>
+        <v>0.033985844053241</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3823039220.568307</v>
+        <v>2850688377.313587</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1724609953704927</v>
+        <v>0.1554585857491965</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02961917414546709</v>
+        <v>0.02238161386472267</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1682383778.226851</v>
+        <v>1626125327.098776</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1748280344575734</v>
+        <v>0.1986300896499056</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03544390303335574</v>
+        <v>0.02465339922535742</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4580924087.310664</v>
+        <v>5093465427.802635</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1459670424757677</v>
+        <v>0.1758220361453949</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05029033873697834</v>
+        <v>0.04961092134943231</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4267639963.860361</v>
+        <v>2633260319.277668</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1170573480108078</v>
+        <v>0.1213253539081046</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04558990749176123</v>
+        <v>0.04183532751722197</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2646231836.876901</v>
+        <v>3061759599.111294</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1374029538112215</v>
+        <v>0.190442575806495</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04908046021001258</v>
+        <v>0.05076843358533494</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3412190630.147532</v>
+        <v>3710082960.443704</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08326431007064274</v>
+        <v>0.06994036620852302</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02773615022543094</v>
+        <v>0.0297422157425676</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3632443543.39502</v>
+        <v>2878988721.731784</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1475935196921735</v>
+        <v>0.1383483102514486</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0311548827611814</v>
+        <v>0.04238598454856871</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1559098029.738977</v>
+        <v>1806829921.280716</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07220033439850823</v>
+        <v>0.09871296054752517</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04051333165557368</v>
+        <v>0.03965625166158039</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2077924580.2597</v>
+        <v>1954556975.224147</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08439150112033549</v>
+        <v>0.07868765968464342</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03762349879099631</v>
+        <v>0.03421614167525627</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4013956429.176652</v>
+        <v>3920973123.472713</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1431883500904709</v>
+        <v>0.1162295935217146</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0407230339734798</v>
+        <v>0.03419644167375092</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3359573984.209449</v>
+        <v>2849249085.264631</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1821885149368946</v>
+        <v>0.1692758399838047</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0254377458077962</v>
+        <v>0.02482978653001996</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>968644135.4695134</v>
+        <v>1059704225.275079</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1615875232339899</v>
+        <v>0.168539949833248</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0258163049817276</v>
+        <v>0.01797662403470906</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1827279758.48945</v>
+        <v>2052626461.551217</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1558584411592344</v>
+        <v>0.111136423770181</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02022072808616315</v>
+        <v>0.02375986544605665</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2657903036.153888</v>
+        <v>2611498558.119485</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06387895341390309</v>
+        <v>0.06966177848630323</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02825188351603043</v>
+        <v>0.03300304227755364</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3646958421.120382</v>
+        <v>2509196308.220909</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1162042395124781</v>
+        <v>0.1040711701761184</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03696636227432435</v>
+        <v>0.0464788950076333</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1422508383.265981</v>
+        <v>1090865317.842928</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1332380861297151</v>
+        <v>0.1277509188846386</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03983384578887586</v>
+        <v>0.05138737640035378</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2993407199.059435</v>
+        <v>3860608540.619669</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1218711852217699</v>
+        <v>0.1439833571691156</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03264563638691477</v>
+        <v>0.02354469250396694</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1130080513.359596</v>
+        <v>1436752165.865572</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09686011857081916</v>
+        <v>0.1211441016347138</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02407880292239983</v>
+        <v>0.02440490625128887</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1015562813.064442</v>
+        <v>1083964172.939938</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1185533957451035</v>
+        <v>0.08564586547640106</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03773944055625741</v>
+        <v>0.02861174826691796</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4225687525.286528</v>
+        <v>3079955429.189975</v>
       </c>
       <c r="F27" t="n">
-        <v>0.148897511000366</v>
+        <v>0.1000629296791941</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02497177738211889</v>
+        <v>0.02600202476869212</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3393009024.574337</v>
+        <v>3285922409.838622</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1421140289166899</v>
+        <v>0.1196134793803348</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04104436783709084</v>
+        <v>0.03950269716337827</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5614552289.105292</v>
+        <v>4646063100.680979</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1420641857166664</v>
+        <v>0.1462827567045896</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03162661464700279</v>
+        <v>0.03055706320098728</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2403604354.219075</v>
+        <v>1624704818.320673</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1180577949148111</v>
+        <v>0.1306914777661748</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04021376590422037</v>
+        <v>0.02953549630474787</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1154273351.838034</v>
+        <v>1067015589.049578</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06858485541975429</v>
+        <v>0.08745808903097355</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04921029390055608</v>
+        <v>0.03974518378916032</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1276094685.411082</v>
+        <v>1775395615.245122</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09568385041129006</v>
+        <v>0.09933442021674922</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03337964997839093</v>
+        <v>0.03548086420010219</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3023921879.200338</v>
+        <v>3037048094.045516</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1568771412548567</v>
+        <v>0.1916420987287503</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04088350981368337</v>
+        <v>0.04956307655380943</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1055331502.334276</v>
+        <v>1302947734.955474</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08304727460995835</v>
+        <v>0.07842819181701348</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02562457723489878</v>
+        <v>0.01951212340579236</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>987799108.472703</v>
+        <v>1275960417.829487</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09174400348876961</v>
+        <v>0.08569903479463258</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04315466462556834</v>
+        <v>0.03865273813043776</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2716234731.991387</v>
+        <v>2990420269.033097</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1491224076379069</v>
+        <v>0.1671540162268121</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02176713765542992</v>
+        <v>0.01936116884529528</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1933241956.737755</v>
+        <v>2814750191.538815</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07401134195292847</v>
+        <v>0.06934111151583151</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03305865635461676</v>
+        <v>0.03620568899983841</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1460497002.592325</v>
+        <v>1628970346.797648</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08491550527367298</v>
+        <v>0.09696020653612153</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02478197005587948</v>
+        <v>0.03033767356372187</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2138890811.954956</v>
+        <v>1784084856.990861</v>
       </c>
       <c r="F39" t="n">
-        <v>0.164890003451593</v>
+        <v>0.1929796076123169</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02939335459754213</v>
+        <v>0.0310583658096209</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1545608302.681535</v>
+        <v>1359028436.289788</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1107565692647705</v>
+        <v>0.1330435990930493</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0569871067230251</v>
+        <v>0.05776791272895012</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2823214024.609824</v>
+        <v>2932696279.685783</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1629345653944707</v>
+        <v>0.1631926111096082</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04174549044061632</v>
+        <v>0.03194170846818194</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3735773434.735588</v>
+        <v>2768605446.088028</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1170627873570534</v>
+        <v>0.0967102011042496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02857474051467774</v>
+        <v>0.03773222070469268</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2120631527.186378</v>
+        <v>2670321321.107487</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1728554734570687</v>
+        <v>0.1488316873746683</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02474530607379453</v>
+        <v>0.01577494842658415</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1843627811.548219</v>
+        <v>1593374257.243006</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09849652576490089</v>
+        <v>0.07301864833287627</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03270543456103848</v>
+        <v>0.02546929591621265</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2173877965.231352</v>
+        <v>2274818253.513943</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1537394586225611</v>
+        <v>0.1927577481499418</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03679821908824246</v>
+        <v>0.05541869043966547</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3792732726.796237</v>
+        <v>3853961538.531205</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1332802706297235</v>
+        <v>0.1395815076732852</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04786522568217651</v>
+        <v>0.06012407803576243</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3140493473.652533</v>
+        <v>3267967516.790061</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1429675364333273</v>
+        <v>0.1889689350224937</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04333447393119805</v>
+        <v>0.05642311382907671</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2892180598.329028</v>
+        <v>4720423987.785728</v>
       </c>
       <c r="F48" t="n">
-        <v>0.106373878311896</v>
+        <v>0.06879647786170551</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03147080064809459</v>
+        <v>0.03167599395507973</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1455378164.583559</v>
+        <v>1442127989.510784</v>
       </c>
       <c r="F49" t="n">
-        <v>0.168561611301538</v>
+        <v>0.1237744364425645</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04192849004189262</v>
+        <v>0.02703915210328255</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3962402706.864093</v>
+        <v>4001735917.91315</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1286258186046645</v>
+        <v>0.157850995494721</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04172460084840327</v>
+        <v>0.04947314451398811</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1137768516.558338</v>
+        <v>1214875494.398789</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1410505633745247</v>
+        <v>0.1654874153518237</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05401472135190944</v>
+        <v>0.03719710793394353</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3372674549.739582</v>
+        <v>4669575563.007249</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1351446980344497</v>
+        <v>0.1135869149878686</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05180670400987071</v>
+        <v>0.04775947491269932</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3363376942.765462</v>
+        <v>3520042543.273291</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1803774434748798</v>
+        <v>0.1952353332734328</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0236706198699099</v>
+        <v>0.03462400588782188</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3340778776.783437</v>
+        <v>4261084288.046926</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1491780392442769</v>
+        <v>0.1658107441833097</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05069142884244032</v>
+        <v>0.03799852336272699</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3299275508.804951</v>
+        <v>4093317449.612925</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2234669862006734</v>
+        <v>0.1880078454469573</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02522170648820185</v>
+        <v>0.0263206186375375</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1626131989.809563</v>
+        <v>1477155577.944358</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1418162552593069</v>
+        <v>0.1565143034430531</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04177776862334948</v>
+        <v>0.05257810138341366</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3321920038.028708</v>
+        <v>4397770310.301385</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1192517746376802</v>
+        <v>0.1300562638417344</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02217897185497245</v>
+        <v>0.02753902712975496</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1876531933.218942</v>
+        <v>1370582451.993231</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1758867786641903</v>
+        <v>0.1671524933775789</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02629989057044349</v>
+        <v>0.03830051337865566</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4489973972.76282</v>
+        <v>3809140967.122492</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1231220939158133</v>
+        <v>0.1001713974445405</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03274696936476431</v>
+        <v>0.04975515714378085</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3463381278.947147</v>
+        <v>2518070984.038869</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1349659058601276</v>
+        <v>0.192745246334601</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02096378531108893</v>
+        <v>0.02576583497453079</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2615460009.57585</v>
+        <v>2756361781.946024</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1179214162588969</v>
+        <v>0.1631321189446625</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03177413932954776</v>
+        <v>0.02313634013549832</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1386854728.151115</v>
+        <v>1520860039.586726</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1865533123303695</v>
+        <v>0.1614305204693098</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03141676706483246</v>
+        <v>0.04432311834604177</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4675125602.32513</v>
+        <v>5196440872.422729</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1025706330574813</v>
+        <v>0.102765335179996</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02964721957384034</v>
+        <v>0.03761220770476648</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4790265264.151415</v>
+        <v>4307753519.167423</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1750860097560444</v>
+        <v>0.1290922208526332</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02734569533909343</v>
+        <v>0.02941609767878676</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5627034387.40354</v>
+        <v>5331305277.789303</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1204798911089018</v>
+        <v>0.1703804324540856</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02287989297803252</v>
+        <v>0.02657744854327964</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3919973578.366609</v>
+        <v>4890261553.800915</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1522300017768142</v>
+        <v>0.1377987181181243</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04475136427262606</v>
+        <v>0.04399358044991226</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3196587202.902825</v>
+        <v>2607748248.312244</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09622692001100532</v>
+        <v>0.1001171377637708</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0479239137287463</v>
+        <v>0.05052459050091519</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4255181205.385158</v>
+        <v>3844888064.554685</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1566877467654373</v>
+        <v>0.1295702156997595</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03672620449850669</v>
+        <v>0.04733538602460621</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2441152087.88576</v>
+        <v>2090241347.12821</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1635882109760625</v>
+        <v>0.1445148474042045</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03698685243048818</v>
+        <v>0.04728431857765512</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2676168796.037895</v>
+        <v>3434750957.182837</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07940332067699539</v>
+        <v>0.09612524262288616</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04370748545233795</v>
+        <v>0.04925974743305445</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4474091745.487128</v>
+        <v>5047075674.601482</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1200849005041529</v>
+        <v>0.1329863048621634</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02663848893705944</v>
+        <v>0.03184474947201803</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1482570209.507859</v>
+        <v>1409737975.767276</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08716171629159612</v>
+        <v>0.07945068341818484</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03842907559339567</v>
+        <v>0.04666028482037267</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3528650535.089712</v>
+        <v>2782260007.557358</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08647670053763563</v>
+        <v>0.07212990878908432</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04386878291612025</v>
+        <v>0.03485438709405535</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3567022406.275476</v>
+        <v>2682576706.476871</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1126707258467618</v>
+        <v>0.1710834255544309</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0347661515184295</v>
+        <v>0.02187048967606601</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1983730617.598226</v>
+        <v>2165826393.991964</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1278246253275028</v>
+        <v>0.142610237560542</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03378651649052464</v>
+        <v>0.02380305054623906</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5290928960.866551</v>
+        <v>4733725418.808248</v>
       </c>
       <c r="F76" t="n">
-        <v>0.120353534837244</v>
+        <v>0.09668163794980722</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02673526247465781</v>
+        <v>0.0274998277423125</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2148597308.774633</v>
+        <v>1906014110.154033</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1791745148776217</v>
+        <v>0.1349927741668932</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02249225565109677</v>
+        <v>0.03032475127360727</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4196083777.914907</v>
+        <v>4149830170.569988</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1140573604748607</v>
+        <v>0.1230491366510782</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05270116943909657</v>
+        <v>0.05100184147832194</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1912698033.393538</v>
+        <v>1639658731.518367</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1763133124191489</v>
+        <v>0.1150470155485875</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02930050704100642</v>
+        <v>0.03395590073608714</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4503647460.847165</v>
+        <v>5272693124.892517</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1045588189831714</v>
+        <v>0.0977352424780725</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02862592068099037</v>
+        <v>0.03544794715698509</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4591664599.036306</v>
+        <v>4459048392.479861</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09349745633337524</v>
+        <v>0.1095097858299138</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0220093606657693</v>
+        <v>0.02591671844062863</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5563373341.394711</v>
+        <v>4450569298.071378</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1844307641243489</v>
+        <v>0.213819175242752</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02123924203986726</v>
+        <v>0.02856920118351373</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1823416552.102872</v>
+        <v>2354334218.646142</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1306752980951038</v>
+        <v>0.1465575695416116</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03056091877688083</v>
+        <v>0.02746956903547713</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2344220800.011968</v>
+        <v>2256546183.848037</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09532309808057263</v>
+        <v>0.0941486141816317</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04346810290551988</v>
+        <v>0.03258258141601551</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3093752990.895539</v>
+        <v>3219604512.091547</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1332862114646628</v>
+        <v>0.1200714979980036</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04029325463168672</v>
+        <v>0.04593930903821288</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1814117074.301754</v>
+        <v>1979554328.447616</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1477944331191514</v>
+        <v>0.1620656223744133</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02620631731680464</v>
+        <v>0.01742617049236383</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1344388724.147874</v>
+        <v>1245088182.737381</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1358435088269744</v>
+        <v>0.1724286217042309</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03524752583120478</v>
+        <v>0.03827391719683212</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3025724859.459919</v>
+        <v>3535967162.300464</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1718886224233636</v>
+        <v>0.1203165962317653</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03503351037527886</v>
+        <v>0.03804723163655272</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2801722317.326991</v>
+        <v>2905420445.927113</v>
       </c>
       <c r="F89" t="n">
-        <v>0.140973637474382</v>
+        <v>0.1593983114868358</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03772588944799594</v>
+        <v>0.02829736416100839</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2057748545.040019</v>
+        <v>2138259740.589784</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1094134877670456</v>
+        <v>0.1181720711504005</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03401989174878126</v>
+        <v>0.05125992068238904</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1295745047.069905</v>
+        <v>1498374139.469708</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1356520290137409</v>
+        <v>0.14363409374455</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05114425225670033</v>
+        <v>0.06025228807133557</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2702191591.051401</v>
+        <v>2440851440.089695</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08815543271960034</v>
+        <v>0.06928428980421673</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03915003233697713</v>
+        <v>0.03443310371748411</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4818778906.132101</v>
+        <v>4184957294.540488</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1040537102152083</v>
+        <v>0.1344002045320196</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04143109847263258</v>
+        <v>0.04193059001393316</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1960095908.694204</v>
+        <v>2362376816.638795</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1393466358368037</v>
+        <v>0.1221704525105509</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03272799440956765</v>
+        <v>0.02821159900338373</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2037870148.113951</v>
+        <v>2627054429.847102</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1313543255522503</v>
+        <v>0.1216077485576448</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0365000035204064</v>
+        <v>0.04733434911091327</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1920930970.069269</v>
+        <v>1559895798.467644</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1023618697422913</v>
+        <v>0.09455283177610969</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04226911108747809</v>
+        <v>0.04067696123841167</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4168996527.030042</v>
+        <v>3778297542.258921</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1096380191329248</v>
+        <v>0.1106988307263683</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02869411056233371</v>
+        <v>0.02525207493661721</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2536651057.170379</v>
+        <v>2667278099.708587</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0876373987415312</v>
+        <v>0.09867903099772815</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03116079160042659</v>
+        <v>0.0219357526419709</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2786100887.815853</v>
+        <v>3382462570.098743</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08922376439956969</v>
+        <v>0.1173954233102106</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0263539169985034</v>
+        <v>0.02654713753421921</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4547924475.665215</v>
+        <v>3091483473.286348</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1441274082823917</v>
+        <v>0.1546299191846568</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01788590050884124</v>
+        <v>0.02183960072739144</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2744404661.898652</v>
+        <v>2203265012.421459</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1376445993342684</v>
+        <v>0.1564112992357237</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03770420450722189</v>
+        <v>0.04853560735311706</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_317.xlsx
+++ b/output/fit_clients/fit_round_317.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2193350006.525269</v>
+        <v>2154724382.124962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06915538247313906</v>
+        <v>0.107128500576313</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0415148952643332</v>
+        <v>0.02997216494789037</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2160708241.114324</v>
+        <v>2316398460.443409</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1512710939887841</v>
+        <v>0.1557413727244277</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05030385750276272</v>
+        <v>0.0397230465367364</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3651802912.551239</v>
+        <v>3729038674.242167</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1399781845614413</v>
+        <v>0.1157309537674774</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03673073983293706</v>
+        <v>0.03021230167750139</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>166</v>
+      </c>
+      <c r="J4" t="n">
+        <v>316</v>
+      </c>
+      <c r="K4" t="n">
+        <v>62.09312132898267</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3808374000.470132</v>
+        <v>3155948605.728371</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09243085293124829</v>
+        <v>0.07344861972482102</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05046599929607861</v>
+        <v>0.03959861853622621</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>126</v>
+      </c>
+      <c r="J5" t="n">
+        <v>316</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57.76620680852363</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2760192264.486811</v>
+        <v>2842945718.080836</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1151447906964013</v>
+        <v>0.09389833754704612</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03489926847004392</v>
+        <v>0.04978040883460974</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2412636324.589274</v>
+        <v>2249363427.055766</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09971101436381428</v>
+        <v>0.06213867336132364</v>
       </c>
       <c r="G7" t="n">
-        <v>0.033985844053241</v>
+        <v>0.03432864128414105</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2850688377.313587</v>
+        <v>2865614405.861015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1554585857491965</v>
+        <v>0.1846501222264967</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02238161386472267</v>
+        <v>0.02831208481965891</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>314</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1626125327.098776</v>
+        <v>1843842566.470129</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1986300896499056</v>
+        <v>0.12700516285288</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02465339922535742</v>
+        <v>0.03233135581525501</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5093465427.802635</v>
+        <v>4891296240.991841</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1758220361453949</v>
+        <v>0.1486563133412382</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04961092134943231</v>
+        <v>0.04085055337974273</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>277</v>
+      </c>
+      <c r="J10" t="n">
+        <v>317</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2633260319.277668</v>
+        <v>4134079202.629549</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1213253539081046</v>
+        <v>0.1826523359368057</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04183532751722197</v>
+        <v>0.04599659578110943</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>128</v>
+      </c>
+      <c r="J11" t="n">
+        <v>317</v>
+      </c>
+      <c r="K11" t="n">
+        <v>87.74031521262884</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3061759599.111294</v>
+        <v>2898030920.851567</v>
       </c>
       <c r="F12" t="n">
-        <v>0.190442575806495</v>
+        <v>0.1485002825558578</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05076843358533494</v>
+        <v>0.03586796080602947</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3710082960.443704</v>
+        <v>3557010530.928617</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06994036620852302</v>
+        <v>0.1007432043251072</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0297422157425676</v>
+        <v>0.03136406984664796</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>164</v>
+      </c>
+      <c r="J13" t="n">
+        <v>315</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2878988721.731784</v>
+        <v>2908340733.653989</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1383483102514486</v>
+        <v>0.1747393799920808</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04238598454856871</v>
+        <v>0.03174456787822776</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>310</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1806829921.280716</v>
+        <v>1305221331.037467</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09871296054752517</v>
+        <v>0.08893735698534104</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03965625166158039</v>
+        <v>0.03769951717157163</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1954556975.224147</v>
+        <v>1783325352.839747</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07868765968464342</v>
+        <v>0.1117666504565373</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03421614167525627</v>
+        <v>0.04675811011045859</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3920973123.472713</v>
+        <v>3464497558.299041</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1162295935217146</v>
+        <v>0.1368802698019169</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03419644167375092</v>
+        <v>0.03435324884500158</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>149</v>
+      </c>
+      <c r="J17" t="n">
+        <v>315</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2849249085.264631</v>
+        <v>3646377641.262241</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1692758399838047</v>
+        <v>0.1305334783473405</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02482978653001996</v>
+        <v>0.02159657032729071</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>317</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1059704225.275079</v>
+        <v>1063561303.905056</v>
       </c>
       <c r="F19" t="n">
-        <v>0.168539949833248</v>
+        <v>0.1275954291888887</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01797662403470906</v>
+        <v>0.01719791028475809</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2052626461.551217</v>
+        <v>2548167682.227795</v>
       </c>
       <c r="F20" t="n">
-        <v>0.111136423770181</v>
+        <v>0.1254429528387526</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02375986544605665</v>
+        <v>0.03014220492688644</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2611498558.119485</v>
+        <v>2621991817.899875</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06966177848630323</v>
+        <v>0.08965184738193055</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03300304227755364</v>
+        <v>0.03595239854882634</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2509196308.220909</v>
+        <v>3761426929.612715</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1040711701761184</v>
+        <v>0.09850978105841081</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0464788950076333</v>
+        <v>0.04004987554114694</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>85</v>
+      </c>
+      <c r="J22" t="n">
+        <v>317</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1090865317.842928</v>
+        <v>1220227069.113174</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1277509188846386</v>
+        <v>0.181694780886006</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05138737640035378</v>
+        <v>0.05078381250910955</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1277,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3860608540.619669</v>
+        <v>3791658811.322973</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1439833571691156</v>
+        <v>0.09474306545738791</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02354469250396694</v>
+        <v>0.03621866289799211</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>95</v>
+      </c>
+      <c r="J24" t="n">
+        <v>316</v>
+      </c>
+      <c r="K24" t="n">
+        <v>66.66790009969803</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1436752165.865572</v>
+        <v>1292101918.318976</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1211441016347138</v>
+        <v>0.07437164464309574</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02440490625128887</v>
+        <v>0.02464915175330647</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1083964172.939938</v>
+        <v>1051818439.284108</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08564586547640106</v>
+        <v>0.1043706103773959</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02861174826691796</v>
+        <v>0.02652497343247516</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3079955429.189975</v>
+        <v>3207874415.487081</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1000629296791941</v>
+        <v>0.1395633282311508</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02600202476869212</v>
+        <v>0.01870947759182577</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>131</v>
+      </c>
+      <c r="J27" t="n">
+        <v>314</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3285922409.838622</v>
+        <v>3703023429.023406</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1196134793803348</v>
+        <v>0.1483913715560955</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03950269716337827</v>
+        <v>0.03756246010220073</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>66</v>
+      </c>
+      <c r="J28" t="n">
+        <v>317</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4646063100.680979</v>
+        <v>5512969810.382107</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1462827567045896</v>
+        <v>0.1403667864336686</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03055706320098728</v>
+        <v>0.03090638094224737</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>294</v>
+      </c>
+      <c r="J29" t="n">
+        <v>316</v>
+      </c>
+      <c r="K29" t="n">
+        <v>74.48830451424085</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1624704818.320673</v>
+        <v>1610113534.400375</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1306914777661748</v>
+        <v>0.1118229918646572</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02953549630474787</v>
+        <v>0.03617587267169181</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1067015589.049578</v>
+        <v>963928992.6338521</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08745808903097355</v>
+        <v>0.06790231325791111</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03974518378916032</v>
+        <v>0.03845833160352936</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1775395615.245122</v>
+        <v>1844826177.409737</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09933442021674922</v>
+        <v>0.1025443136120747</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03548086420010219</v>
+        <v>0.02708490919077408</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3037048094.045516</v>
+        <v>1887917785.505668</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1916420987287503</v>
+        <v>0.2000996438470416</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04956307655380943</v>
+        <v>0.05356706775650192</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1302947734.955474</v>
+        <v>1287782742.533668</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07842819181701348</v>
+        <v>0.1087129933366154</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01951212340579236</v>
+        <v>0.02661437002815177</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1275960417.829487</v>
+        <v>1264468775.894069</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08569903479463258</v>
+        <v>0.0779028786682229</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03865273813043776</v>
+        <v>0.0392205486554644</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2990420269.033097</v>
+        <v>2168705582.617033</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1671540162268121</v>
+        <v>0.1325387088421578</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01936116884529528</v>
+        <v>0.01872722349257121</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2814750191.538815</v>
+        <v>1797732641.880378</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06934111151583151</v>
+        <v>0.1034811146025852</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03620568899983841</v>
+        <v>0.04266110561350518</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1628970346.797648</v>
+        <v>1370659704.045836</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09696020653612153</v>
+        <v>0.095022097035266</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03033767356372187</v>
+        <v>0.03945156275734246</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1784084856.990861</v>
+        <v>1941315352.757551</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1929796076123169</v>
+        <v>0.1572143079092645</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0310583658096209</v>
+        <v>0.02138119321584496</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1359028436.289788</v>
+        <v>1820991573.54521</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1330435990930493</v>
+        <v>0.1380829045561127</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05776791272895012</v>
+        <v>0.05703321273838987</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2932696279.685783</v>
+        <v>2920756558.154375</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1631926111096082</v>
+        <v>0.1359507932782663</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03194170846818194</v>
+        <v>0.04719761443313682</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2768605446.088028</v>
+        <v>3066813041.516954</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0967102011042496</v>
+        <v>0.08651014887886845</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03773222070469268</v>
+        <v>0.03019522803893267</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>130</v>
+      </c>
+      <c r="J42" t="n">
+        <v>316</v>
+      </c>
+      <c r="K42" t="n">
+        <v>52.73964113509636</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2670321321.107487</v>
+        <v>2649465595.543673</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1488316873746683</v>
+        <v>0.1301959392750752</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01577494842658415</v>
+        <v>0.02494738978762672</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1593374257.243006</v>
+        <v>1487082481.328838</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07301864833287627</v>
+        <v>0.07382213153481584</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02546929591621265</v>
+        <v>0.03259125374625206</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2274818253.513943</v>
+        <v>2322214889.266115</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1927577481499418</v>
+        <v>0.1793104023614218</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05541869043966547</v>
+        <v>0.04773201982292927</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3853961538.531205</v>
+        <v>3568894709.385164</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1395815076732852</v>
+        <v>0.1236497248575634</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06012407803576243</v>
+        <v>0.04627862322596427</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>190</v>
+      </c>
+      <c r="J46" t="n">
+        <v>316</v>
+      </c>
+      <c r="K46" t="n">
+        <v>59.5314049886955</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2090,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3267967516.790061</v>
+        <v>5108120337.023274</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1889689350224937</v>
+        <v>0.156687440634659</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05642311382907671</v>
+        <v>0.05406333826566783</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>141</v>
+      </c>
+      <c r="J47" t="n">
+        <v>316</v>
+      </c>
+      <c r="K47" t="n">
+        <v>66.78362647325143</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4720423987.785728</v>
+        <v>3562273142.581785</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06879647786170551</v>
+        <v>0.08441661983929549</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03167599395507973</v>
+        <v>0.03222626628056641</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>159</v>
+      </c>
+      <c r="J48" t="n">
+        <v>315</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1442127989.510784</v>
+        <v>1274221724.36214</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1237744364425645</v>
+        <v>0.1602074276877011</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02703915210328255</v>
+        <v>0.02976139196792543</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4001735917.91315</v>
+        <v>4197430723.729546</v>
       </c>
       <c r="F50" t="n">
-        <v>0.157850995494721</v>
+        <v>0.1674775116744111</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04947314451398811</v>
+        <v>0.03220438775933436</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>101</v>
+      </c>
+      <c r="J50" t="n">
+        <v>317</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1214875494.398789</v>
+        <v>1144820916.137916</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1654874153518237</v>
+        <v>0.1255454856141349</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03719710793394353</v>
+        <v>0.04497194575393484</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4669575563.007249</v>
+        <v>4924539638.697975</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1135869149878686</v>
+        <v>0.1055464665265509</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04775947491269932</v>
+        <v>0.0378291130716847</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>193</v>
+      </c>
+      <c r="J52" t="n">
+        <v>316</v>
+      </c>
+      <c r="K52" t="n">
+        <v>74.26901953026193</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3520042543.273291</v>
+        <v>3749365112.169152</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1952353332734328</v>
+        <v>0.1541011825819696</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03462400588782188</v>
+        <v>0.02303716928545093</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>44</v>
+      </c>
+      <c r="J53" t="n">
+        <v>317</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4261084288.046926</v>
+        <v>3723237085.390771</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1658107441833097</v>
+        <v>0.1522514192572857</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03799852336272699</v>
+        <v>0.04874082092300571</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>167</v>
+      </c>
+      <c r="J54" t="n">
+        <v>316</v>
+      </c>
+      <c r="K54" t="n">
+        <v>63.96035482852798</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4093317449.612925</v>
+        <v>4068492182.298349</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1880078454469573</v>
+        <v>0.1962802873089724</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0263206186375375</v>
+        <v>0.03154069521353135</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>147</v>
+      </c>
+      <c r="J55" t="n">
+        <v>317</v>
+      </c>
+      <c r="K55" t="n">
+        <v>77.95783241520768</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1477155577.944358</v>
+        <v>1699174432.987535</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1565143034430531</v>
+        <v>0.1536890515881858</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05257810138341366</v>
+        <v>0.04191424341478767</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4397770310.301385</v>
+        <v>3930726030.271491</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1300562638417344</v>
+        <v>0.1777382059420445</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02753902712975496</v>
+        <v>0.02559347549924815</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>129</v>
+      </c>
+      <c r="J57" t="n">
+        <v>317</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1370582451.993231</v>
+        <v>1377349576.109093</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1671524933775789</v>
+        <v>0.1616752101915541</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03830051337865566</v>
+        <v>0.02925404681859939</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3809140967.122492</v>
+        <v>4533230401.045414</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1001713974445405</v>
+        <v>0.0955661152032181</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04975515714378085</v>
+        <v>0.03734430361702298</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>153</v>
+      </c>
+      <c r="J59" t="n">
+        <v>317</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2518070984.038869</v>
+        <v>2486738960.17869</v>
       </c>
       <c r="F60" t="n">
-        <v>0.192745246334601</v>
+        <v>0.1613217373461197</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02576583497453079</v>
+        <v>0.0322363827454342</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>55</v>
+      </c>
+      <c r="J60" t="n">
+        <v>316</v>
+      </c>
+      <c r="K60" t="n">
+        <v>35.62740997949026</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2756361781.946024</v>
+        <v>3012096632.035457</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1631321189446625</v>
+        <v>0.1716307877537855</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02313634013549832</v>
+        <v>0.02360732879750546</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1520860039.586726</v>
+        <v>1361670948.692582</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1614305204693098</v>
+        <v>0.1507928304735849</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04432311834604177</v>
+        <v>0.04723934573732073</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5196440872.422729</v>
+        <v>5134999072.369767</v>
       </c>
       <c r="F63" t="n">
-        <v>0.102765335179996</v>
+        <v>0.07297840763945657</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03761220770476648</v>
+        <v>0.03315344587759359</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>154</v>
+      </c>
+      <c r="J63" t="n">
+        <v>316</v>
+      </c>
+      <c r="K63" t="n">
+        <v>74.85758686577184</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4307753519.167423</v>
+        <v>5003369857.681656</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1290922208526332</v>
+        <v>0.1608734271347745</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02941609767878676</v>
+        <v>0.02415018027197903</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>157</v>
+      </c>
+      <c r="J64" t="n">
+        <v>316</v>
+      </c>
+      <c r="K64" t="n">
+        <v>74.55663367224211</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5331305277.789303</v>
+        <v>3727510471.459742</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1703804324540856</v>
+        <v>0.1231284817390302</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02657744854327964</v>
+        <v>0.02500241290254845</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>250</v>
+      </c>
+      <c r="J65" t="n">
+        <v>316</v>
+      </c>
+      <c r="K65" t="n">
+        <v>63.37426170928805</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4890261553.800915</v>
+        <v>3756003671.497427</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1377987181181243</v>
+        <v>0.1610533787297863</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04399358044991226</v>
+        <v>0.04325496354979177</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>156</v>
+      </c>
+      <c r="J66" t="n">
+        <v>317</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2607748248.312244</v>
+        <v>3416087144.418099</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1001171377637708</v>
+        <v>0.08057113090437679</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05052459050091519</v>
+        <v>0.04542118170109278</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3844888064.554685</v>
+        <v>5097445154.237454</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1295702156997595</v>
+        <v>0.1449910529666578</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04733538602460621</v>
+        <v>0.04983395216733237</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>171</v>
+      </c>
+      <c r="J68" t="n">
+        <v>316</v>
+      </c>
+      <c r="K68" t="n">
+        <v>75.05689142601763</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2090241347.12821</v>
+        <v>2355313244.998093</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1445148474042045</v>
+        <v>0.1766681625520273</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04728431857765512</v>
+        <v>0.04343313565626706</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3434750957.182837</v>
+        <v>3172711893.279917</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09612524262288616</v>
+        <v>0.08510020023965316</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04925974743305445</v>
+        <v>0.03275222862758747</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>47</v>
+      </c>
+      <c r="J70" t="n">
+        <v>313</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2948,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5047075674.601482</v>
+        <v>5505152036.719048</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1329863048621634</v>
+        <v>0.1386960237519811</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03184474947201803</v>
+        <v>0.03276708900701814</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>234</v>
+      </c>
+      <c r="J71" t="n">
+        <v>317</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1409737975.767276</v>
+        <v>1558536963.560931</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07945068341818484</v>
+        <v>0.09470072832940327</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04666028482037267</v>
+        <v>0.05049673322804765</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2782260007.557358</v>
+        <v>3520021493.277742</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07212990878908432</v>
+        <v>0.08464097467290875</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03485438709405535</v>
+        <v>0.05072033171031315</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2682576706.476871</v>
+        <v>3395362621.938799</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1710834255544309</v>
+        <v>0.1544444678405219</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02187048967606601</v>
+        <v>0.02831204139089603</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>83</v>
+      </c>
+      <c r="J74" t="n">
+        <v>315</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2165826393.991964</v>
+        <v>2190333938.716939</v>
       </c>
       <c r="F75" t="n">
-        <v>0.142610237560542</v>
+        <v>0.1223281803118666</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02380305054623906</v>
+        <v>0.02817257163750808</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4733725418.808248</v>
+        <v>4400419637.338395</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09668163794980722</v>
+        <v>0.09859413457061954</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0274998277423125</v>
+        <v>0.0240375259724564</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>149</v>
+      </c>
+      <c r="J76" t="n">
+        <v>317</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1906014110.154033</v>
+        <v>1968150240.67302</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1349927741668932</v>
+        <v>0.1581719046775005</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03032475127360727</v>
+        <v>0.02837361859110687</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4149830170.569988</v>
+        <v>4610052051.205984</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1230491366510782</v>
+        <v>0.1014921245017829</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05100184147832194</v>
+        <v>0.04876249128940895</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>157</v>
+      </c>
+      <c r="J78" t="n">
+        <v>317</v>
+      </c>
+      <c r="K78" t="n">
+        <v>78.42512276571819</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1639658731.518367</v>
+        <v>1630197264.418584</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1150470155485875</v>
+        <v>0.1498142465846334</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03395590073608714</v>
+        <v>0.03280399950110471</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3265,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5272693124.892517</v>
+        <v>3744778637.856935</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0977352424780725</v>
+        <v>0.068685687472612</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03544794715698509</v>
+        <v>0.03246953070990212</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>155</v>
+      </c>
+      <c r="J80" t="n">
+        <v>316</v>
+      </c>
+      <c r="K80" t="n">
+        <v>48.75823112415516</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4459048392.479861</v>
+        <v>3623044986.696898</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1095097858299138</v>
+        <v>0.08644537447582809</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02591671844062863</v>
+        <v>0.02560213417077258</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>146</v>
+      </c>
+      <c r="J81" t="n">
+        <v>317</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4450569298.071378</v>
+        <v>5023966117.444877</v>
       </c>
       <c r="F82" t="n">
-        <v>0.213819175242752</v>
+        <v>0.1971092036053664</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02856920118351373</v>
+        <v>0.02782526766399333</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>229</v>
+      </c>
+      <c r="J82" t="n">
+        <v>317</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2354334218.646142</v>
+        <v>2194639024.914573</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1465575695416116</v>
+        <v>0.1580458853825966</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02746956903547713</v>
+        <v>0.04175556225543698</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2256546183.848037</v>
+        <v>2387882406.579148</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0941486141816317</v>
+        <v>0.08733082549481848</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03258258141601551</v>
+        <v>0.04810573589190377</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3219604512.091547</v>
+        <v>2865124493.979533</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1200714979980036</v>
+        <v>0.1135358577344303</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04593930903821288</v>
+        <v>0.04392723492808791</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>42</v>
+      </c>
+      <c r="J85" t="n">
+        <v>315</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1979554328.447616</v>
+        <v>1901513911.537746</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1620656223744133</v>
+        <v>0.1066021593142924</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01742617049236383</v>
+        <v>0.01789427238608842</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1245088182.737381</v>
+        <v>1419361645.306825</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1724286217042309</v>
+        <v>0.1354627634117412</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03827391719683212</v>
+        <v>0.04347667681034183</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3535967162.300464</v>
+        <v>2503019135.372627</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1203165962317653</v>
+        <v>0.1390533601102737</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03804723163655272</v>
+        <v>0.03385795383031782</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2905420445.927113</v>
+        <v>2521987164.832939</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1593983114868358</v>
+        <v>0.1296530437943887</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02829736416100839</v>
+        <v>0.03986951593743113</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>314</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2138259740.589784</v>
+        <v>1691595473.719346</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1181720711504005</v>
+        <v>0.09374877714323807</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05125992068238904</v>
+        <v>0.04247829507273596</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1498374139.469708</v>
+        <v>1707994611.561007</v>
       </c>
       <c r="F91" t="n">
-        <v>0.14363409374455</v>
+        <v>0.1224591105830967</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06025228807133557</v>
+        <v>0.0478606627411084</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2440851440.089695</v>
+        <v>2395115636.073127</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06928428980421673</v>
+        <v>0.06719027219293214</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03443310371748411</v>
+        <v>0.04403851753302013</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4184957294.540488</v>
+        <v>4134766074.166173</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1344002045320196</v>
+        <v>0.09010894657207627</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04193059001393316</v>
+        <v>0.04601345022115136</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>142</v>
+      </c>
+      <c r="J93" t="n">
+        <v>317</v>
+      </c>
+      <c r="K93" t="n">
+        <v>77.52986627040296</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2362376816.638795</v>
+        <v>1696258276.812098</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1221704525105509</v>
+        <v>0.110912192280125</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02821159900338373</v>
+        <v>0.0408141409198599</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2627054429.847102</v>
+        <v>2929503337.42631</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1216077485576448</v>
+        <v>0.1168645910686044</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04733434911091327</v>
+        <v>0.03808970746498729</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1559895798.467644</v>
+        <v>1800984074.650469</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09455283177610969</v>
+        <v>0.1191508987238313</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04067696123841167</v>
+        <v>0.04028835605323824</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3778297542.258921</v>
+        <v>4362236254.127383</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1106988307263683</v>
+        <v>0.1371606227803107</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02525207493661721</v>
+        <v>0.02253005389459411</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>160</v>
+      </c>
+      <c r="J97" t="n">
+        <v>317</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2667278099.708587</v>
+        <v>3601312040.053932</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09867903099772815</v>
+        <v>0.1156548284498916</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0219357526419709</v>
+        <v>0.02136332967383061</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>78</v>
+      </c>
+      <c r="J98" t="n">
+        <v>317</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3382462570.098743</v>
+        <v>2691033498.746302</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1173954233102106</v>
+        <v>0.109050483488093</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02654713753421921</v>
+        <v>0.03258514277119064</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3091483473.286348</v>
+        <v>4808234546.765775</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1546299191846568</v>
+        <v>0.1723393915977708</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02183960072739144</v>
+        <v>0.01922087648999095</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>139</v>
+      </c>
+      <c r="J100" t="n">
+        <v>317</v>
+      </c>
+      <c r="K100" t="n">
+        <v>75.72551470711285</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2203265012.421459</v>
+        <v>3386044977.370917</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1564112992357237</v>
+        <v>0.1813751703315109</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04853560735311706</v>
+        <v>0.05435630123280673</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
